--- a/data/trans_camb/P59A-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P59A-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P59A-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P59A-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,71</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,91</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,82; 8,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,08; 5,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,43; 7,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,72; 5,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,7; 4,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,08; 3,45</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,19; 5,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,16; 3,77</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,76; 3,49</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,21%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,53%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,03%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,65%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,26%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,4%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,01%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,23%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,56%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,93; 144,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,21; 100,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,05; 111,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,1; 151,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,57; 123,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,41; 109,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,48; 115,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,96; 78,16</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,64; 77,35</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,27</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,18</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,73</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,04</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,43</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,97</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,29; 5,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,36; 8,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,06; 5,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,63; 8,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,01; 7,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,61; 5,5</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,45; 5,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,54; 6,84</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,62; 4,64</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,47%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,47%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,87%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,12%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,22%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,72%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,11%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,7%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,16; 41,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,26; 68,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,46; 48,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,07; 88,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,64; 81,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,7; 55,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,94; 47,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,14; 57,49</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,52; 37,73</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,35</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,63</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,57</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,27; 8,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,9; 10,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,65; 7,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,53; 12,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,0; 7,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,79; 8,62</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,2; 8,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,78; 6,37</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,5; 6,38</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,57%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,04%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,15%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,83%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,32%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,64%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,32; 53,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,88; 70,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,77; 45,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,18; 92,77</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,41; 54,48</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,53; 63,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,68; 51,31</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,07; 40,35</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,68; 43,2</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,83</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,05</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,89</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,91</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,86</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,57</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,05; 4,53</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,94; 6,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,54; 5,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,45; 6,74</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,68; 6,45</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,71; 5,24</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,02; 4,82</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,85; 5,69</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,71; 4,42</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,07%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,96%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,86%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,62%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,32%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,26%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,43%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,45%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,61%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,7; 38,39</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,22; 54,49</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,41; 44,06</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,28; 73,39</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,76; 73,02</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,41; 57,38</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,82; 44,26</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,16; 52,27</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,91; 40,15</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P59A-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P59A-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>1,36</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 7,15</t>
+          <t>-3,1; 7,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 3,45</t>
+          <t>-1,85; 3,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 3,49</t>
+          <t>-1,54; 4,08</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>23,03%</t>
+          <t>28,29%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>13,4%</t>
+          <t>21,08%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>15,56%</t>
+          <t>23,15%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-37,05; 111,32</t>
+          <t>-33,55; 121,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-35,41; 109,15</t>
+          <t>-32,67; 124,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-25,64; 77,35</t>
+          <t>-20,91; 88,5</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,08</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,97</t>
+          <t>1,76</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 5,96</t>
+          <t>-2,17; 5,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 5,5</t>
+          <t>-2,67; 5,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 4,64</t>
+          <t>-1,03; 4,59</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,47%</t>
+          <t>12,62%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,22%</t>
+          <t>14,38%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14,7%</t>
+          <t>13,16%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-12,46; 48,6</t>
+          <t>-13,43; 48,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-10,7; 55,47</t>
+          <t>-18,44; 52,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 37,73</t>
+          <t>-7,3; 37,96</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,63</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,57</t>
+          <t>1,44</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 7,21</t>
+          <t>-7,76; 6,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 8,62</t>
+          <t>-4,42; 8,88</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 6,38</t>
+          <t>-3,53; 6,37</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>0,07%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>15,15%</t>
+          <t>16,09%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>7,91%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-31,77; 45,25</t>
+          <t>-32,92; 42,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-21,53; 63,0</t>
+          <t>-20,27; 65,23</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-16,68; 43,2</t>
+          <t>-17,07; 42,72</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,89</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,57</t>
+          <t>2,55</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 5,17</t>
+          <t>-0,72; 5,18</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,71; 5,24</t>
+          <t>0,32; 5,37</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,71; 4,42</t>
+          <t>0,66; 4,5</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>16,86%</t>
+          <t>16,2%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>28,26%</t>
+          <t>28,07%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>21,61%</t>
+          <t>21,47%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 44,06</t>
+          <t>-4,65; 42,53</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,41; 57,38</t>
+          <t>2,89; 59,55</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4,91; 40,15</t>
+          <t>4,94; 40,53</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P59A-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P59A-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 8,52</t>
+          <t>-0,51; 8,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 5,8</t>
+          <t>-3,1; 6,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 7,5</t>
+          <t>-3,04; 8,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 5,31</t>
+          <t>-0,86; 5,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 4,17</t>
+          <t>-2,01; 4,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 3,97</t>
+          <t>-1,88; 4,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,19; 5,33</t>
+          <t>0,13; 5,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 3,77</t>
+          <t>-1,19; 3,87</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 4,08</t>
+          <t>-1,42; 4,28</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,93; 144,4</t>
+          <t>-5,84; 149,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-34,21; 100,97</t>
+          <t>-33,17; 108,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-33,55; 121,8</t>
+          <t>-34,8; 133,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,1; 151,67</t>
+          <t>-17,71; 153,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-30,57; 123,59</t>
+          <t>-33,9; 124,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-32,67; 124,93</t>
+          <t>-32,89; 121,43</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,48; 115,91</t>
+          <t>1,02; 120,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-16,96; 78,16</t>
+          <t>-19,18; 78,06</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-20,91; 88,5</t>
+          <t>-21,39; 91,98</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 5,2</t>
+          <t>-2,7; 4,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,36; 8,32</t>
+          <t>0,68; 8,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 5,86</t>
+          <t>-2,17; 5,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,63; 8,93</t>
+          <t>1,52; 9,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,01; 7,91</t>
+          <t>1,03; 8,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 5,24</t>
+          <t>-2,63; 5,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,45; 5,79</t>
+          <t>0,35; 5,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,54; 6,84</t>
+          <t>1,84; 6,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 4,59</t>
+          <t>-1,07; 4,54</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-14,16; 41,37</t>
+          <t>-16,37; 39,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,26; 68,09</t>
+          <t>3,45; 64,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-13,43; 48,02</t>
+          <t>-13,71; 44,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,07; 88,75</t>
+          <t>9,42; 87,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,64; 81,18</t>
+          <t>7,25; 80,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-18,44; 52,75</t>
+          <t>-18,64; 52,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,94; 47,81</t>
+          <t>2,4; 46,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,14; 57,49</t>
+          <t>12,28; 58,21</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-7,3; 37,96</t>
+          <t>-7,55; 37,4</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 8,22</t>
+          <t>-6,81; 8,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 10,47</t>
+          <t>-4,09; 10,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 6,55</t>
+          <t>-7,76; 7,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 12,94</t>
+          <t>-3,97; 12,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 7,36</t>
+          <t>-7,06; 6,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 8,88</t>
+          <t>-3,83; 9,23</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 8,11</t>
+          <t>-3,02; 8,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 6,37</t>
+          <t>-3,69; 6,87</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 6,37</t>
+          <t>-3,26; 6,62</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-31,32; 53,42</t>
+          <t>-31,65; 54,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-22,88; 70,57</t>
+          <t>-18,69; 68,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-32,92; 42,1</t>
+          <t>-34,08; 49,43</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-18,18; 92,77</t>
+          <t>-20,85; 95,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-33,41; 54,48</t>
+          <t>-33,9; 47,96</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-20,27; 65,23</t>
+          <t>-17,15; 71,73</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-15,68; 51,31</t>
+          <t>-15,61; 53,43</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-18,07; 40,35</t>
+          <t>-17,99; 44,89</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-17,07; 42,72</t>
+          <t>-15,91; 42,42</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 4,53</t>
+          <t>-1,0; 4,48</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,94; 6,67</t>
+          <t>0,92; 6,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 5,18</t>
+          <t>-0,58; 5,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,45; 6,74</t>
+          <t>1,36; 6,83</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,68; 6,45</t>
+          <t>1,44; 6,26</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,32; 5,37</t>
+          <t>0,29; 5,48</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,02; 4,82</t>
+          <t>0,83; 4,74</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,85; 5,69</t>
+          <t>2,04; 5,6</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,66; 4,5</t>
+          <t>0,52; 4,41</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-7,7; 38,39</t>
+          <t>-6,16; 36,17</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,22; 54,49</t>
+          <t>6,19; 54,51</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 42,53</t>
+          <t>-4,05; 44,27</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>12,28; 73,39</t>
+          <t>11,19; 74,85</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>13,76; 73,02</t>
+          <t>12,27; 69,82</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,89; 59,55</t>
+          <t>2,6; 61,41</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>7,82; 44,26</t>
+          <t>6,4; 42,48</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>14,16; 52,27</t>
+          <t>15,64; 51,02</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4,94; 40,53</t>
+          <t>4,28; 40,07</t>
         </is>
       </c>
     </row>
